--- a/VersionRecords/Version3.1.2/BS权限配置/新增权限配置表.xlsx
+++ b/VersionRecords/Version3.1.2/BS权限配置/新增权限配置表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23025" windowHeight="6180"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>级别</t>
   </si>
@@ -67,14 +67,105 @@
   </si>
   <si>
     <t>磐石组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理--系统管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理</t>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>common/bankList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理--系统管理--银行卡管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询编辑银行信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>common/findBankById</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理--系统管理--银行卡管理--查询编辑银行信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>common/addBank</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理--系统管理--银行卡管理--新增银行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增银行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>common/editBank</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理--系统管理--银行卡管理--编辑银行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑银行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理--系统管理--银行卡管理--删除银行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除银行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>common/deleteBank</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +351,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -272,7 +431,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -346,6 +505,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -380,6 +540,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -555,14 +716,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E7" sqref="E7:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="64.625" customWidth="1"/>
     <col min="3" max="3" width="42.125" customWidth="1"/>
@@ -570,7 +731,7 @@
     <col min="9" max="9" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -599,7 +760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>4</v>
       </c>
@@ -626,73 +787,169 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="4"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="4"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="4"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -703,7 +960,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -714,7 +971,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -725,7 +982,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -736,7 +993,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -747,7 +1004,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -758,7 +1015,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -769,7 +1026,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -780,7 +1037,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -791,7 +1048,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -802,7 +1059,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -813,7 +1070,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -824,7 +1081,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -835,7 +1092,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -846,7 +1103,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -856,7 +1113,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="16"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -867,7 +1124,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -878,7 +1135,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -889,7 +1146,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="4"/>
@@ -900,7 +1157,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="4"/>
@@ -911,7 +1168,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
@@ -922,7 +1179,7 @@
       <c r="H29" s="5"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="4"/>
@@ -933,7 +1190,7 @@
       <c r="H30" s="5"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" s="2" customFormat="1">
+    <row r="31" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -944,7 +1201,7 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="4"/>
@@ -955,7 +1212,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="4"/>
@@ -966,7 +1223,7 @@
       <c r="H33" s="10"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="4"/>
@@ -977,7 +1234,7 @@
       <c r="H34" s="10"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="11"/>
@@ -988,7 +1245,7 @@
       <c r="H35" s="10"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
@@ -999,7 +1256,7 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="10"/>
       <c r="B37" s="5"/>
       <c r="C37" s="11"/>
@@ -1010,7 +1267,7 @@
       <c r="H37" s="10"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
       <c r="B38" s="5"/>
       <c r="C38" s="10"/>
@@ -1021,7 +1278,7 @@
       <c r="H38" s="10"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1032,7 +1289,7 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="4"/>
@@ -1043,7 +1300,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="10"/>
       <c r="C41" s="4"/>
@@ -1054,7 +1311,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1065,7 +1322,7 @@
       <c r="H42" s="5"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="11"/>
       <c r="C43" s="10"/>
@@ -1076,7 +1333,7 @@
       <c r="H43" s="10"/>
       <c r="I43" s="11"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="4"/>
@@ -1087,7 +1344,7 @@
       <c r="H44" s="10"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="11"/>
       <c r="C45" s="10"/>
@@ -1098,7 +1355,7 @@
       <c r="H45" s="10"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
@@ -1117,12 +1374,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1131,12 +1388,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VersionRecords/Version3.1.2/BS权限配置/新增权限配置表.xlsx
+++ b/VersionRecords/Version3.1.2/BS权限配置/新增权限配置表.xlsx
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>级别</t>
   </si>
@@ -149,15 +149,38 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>删除银行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>common/deleteBank</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>系统管理--系统管理--银行卡管理--删除银行</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>删除银行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>common/deleteBank</t>
+    <t>系统管理--系统管理--银行卡管理--上传图片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传图片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>common/uploadImage</t>
+  </si>
+  <si>
+    <t>common/findBankPicById</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理--系统管理--银行卡管理--查看银行图片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看银行图片</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -351,74 +374,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -720,7 +675,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:H8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -927,13 +882,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>24</v>
@@ -950,25 +905,57 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="A10" s="4">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
